--- a/biology/Botanique/Cédronelle/Cédronelle.xlsx
+++ b/biology/Botanique/Cédronelle/Cédronelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9dronelle</t>
+          <t>Cédronelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cedronella canariensis
 La Cédronelle, Cedronella canariensis, également appelée Baume de Galaad est une espèce de plantes vivaces, aromatiques et médicinales, de la famille des Lamiaceae. Elle manifeste une senteur camphrée. Sa floraison est rose, en été.
